--- a/xlttm/rule/rule_stone.xlsx
+++ b/xlttm/rule/rule_stone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t xml:space="preserve">near</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">far</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fast</t>
   </si>
 </sst>
 </file>
@@ -64,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,12 +150,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,7 +337,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
